--- a/biology/Botanique/Agapanthus/Agapanthus.xlsx
+++ b/biology/Botanique/Agapanthus/Agapanthus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agapanthus (les agapanthes) est un genre de plantes herbacées. Il s'agit du seul genre de la famille des Agapanthacées.
 </t>
@@ -511,12 +523,14 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[1] ce genre est assigné à la famille des Liliaceae.
-En classification phylogénétique APG (1998)[2] ce genre est assigné à la famille des Agapanthaceae.
-En classification phylogénétique APG II (2003)[3] ce genre est assigné à la famille des Agapanthaceae ou des Alliaceae.
-En classification phylogénétique APG III (2009)[4] ce genre est assigné à la famille des Amaryllidaceae.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981) ce genre est assigné à la famille des Liliaceae.
+En classification phylogénétique APG (1998) ce genre est assigné à la famille des Agapanthaceae.
+En classification phylogénétique APG II (2003) ce genre est assigné à la famille des Agapanthaceae ou des Alliaceae.
+En classification phylogénétique APG III (2009) ce genre est assigné à la famille des Amaryllidaceae.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Zonneveld et Duncan (2003) ont classé Agapanthus sous six espèces du genre Agapanthus (A. africanus, A. campanulatus, A. caulescens, A. coddii, A. inapertus, A. praecox). Quatre espèces déterminées par Leighton (1965) (A. comptonii, A. dyeri, A. nutans, A. walshii) ont été reclassées en sous-espèces par Zonneveld &amp; Duncan.
 Agapanthus africanus (syn. A. umbellatus)
@@ -559,7 +575,7 @@
 Agapanthus orientalis
 Agapanthus praecox (Agapanthe commune, Lis du Nil, Tubéreuse bleue)
 Agapanthus walshii
-Selon World Checklist of Selected Plant Families (WCSP)  (3 juin 2010)[5] :
+Selon World Checklist of Selected Plant Families (WCSP)  (3 juin 2010) :
 Agapanthus africanus (L.) Hoffmanns. (1824)
 Agapanthus campanulatus F.M.Leight. (1934)
 Agapanthus caulescens Spreng. (1901)
@@ -567,7 +583,7 @@
 Agapanthus inapertus Beauverd (1912)
 Agapanthus praecox Willd. (1809)
 Agapanthus walshii L.Bolus (1920)
-Selon NCBI  (3 juin 2010)[6] :
+Selon NCBI  (3 juin 2010) :
 Agapanthus africanus
 Agapanthus campanulatus
 Agapanthus caulescens
@@ -599,9 +615,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des plantes herbacées, rhizomateuses, de tailles variables (0,75 m à 1 mètre de hauteur de tiges)[7], aux inflorescences en ombelles, endémiques d'Afrique du Sud.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des plantes herbacées, rhizomateuses, de tailles variables (0,75 m à 1 mètre de hauteur de tiges), aux inflorescences en ombelles, endémiques d'Afrique du Sud.
 Les agapanthes partagent des caractéristiques avec les genres des Alliaceae et des Amaryllidaceae, mais n'ont pas l'odeur des alliacées. Elles ont également des ovaires supères, contrairement aux ovaires généralement infères des Amaryllidaceae.
 			Agapanthus praecox.
 			Agapanthus 'Windlebrook', bouton floral.
